--- a/data-raw/macroeconomic/year2023_Table_23._Industrial_Sector_Macroeconomic_Indicators.xlsx
+++ b/data-raw/macroeconomic/year2023_Table_23._Industrial_Sector_Macroeconomic_Indicators.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://scdnr3-my.sharepoint.com/personal/pellettc_dnr_sc_gov/Documents/Documents/Rpackages/scwaterdemand/data-raw/macroeconomic/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clemson-my.sharepoint.com/personal/lsangha_clemson_edu/Documents/Desktop/Sangha/Packages/EIAdata/data-raw/macroeconomic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:40009_{CD7B6013-82C9-4F94-B76C-C44745B5CA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BEAE89D-6EAF-4242-95E5-15D8626AF92B}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:40009_{CD7B6013-82C9-4F94-B76C-C44745B5CA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27EEB9E9-6E70-4EC3-A010-A30BBC358887}"/>
   <bookViews>
-    <workbookView xWindow="3495" yWindow="1740" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="formatted" sheetId="2" r:id="rId1"/>
     <sheet name="year2023_Table_23._Industrial_S" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterate="1"/>
 </workbook>
 </file>
 
@@ -1274,18 +1274,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A06B8E-4561-4A2E-84D9-4A46B6F859FA}">
   <dimension ref="A1:AG39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="38.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.81640625" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>127</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>122</v>
       </c>
@@ -5152,39 +5152,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI46"/>
   <sheetViews>
-    <sheetView topLeftCell="D10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:AI46"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J86" sqref="J86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.54296875" customWidth="1"/>
+    <col min="2" max="2" width="32.7265625" customWidth="1"/>
     <col min="3" max="3" width="39" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" customWidth="1"/>
+    <col min="4" max="4" width="40.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -5496,17 +5496,17 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -5818,12 +5818,12 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -6655,7 +6655,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -6759,7 +6759,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -6967,7 +6967,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>125</v>
       </c>
@@ -7071,7 +7071,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -7279,7 +7279,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>69</v>
       </c>
@@ -7383,7 +7383,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>72</v>
       </c>
@@ -7487,7 +7487,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -7591,7 +7591,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>78</v>
       </c>
@@ -7695,7 +7695,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>126</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>83</v>
       </c>
@@ -7903,7 +7903,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>86</v>
       </c>
@@ -8007,7 +8007,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>89</v>
       </c>
@@ -8111,7 +8111,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>92</v>
       </c>
@@ -8215,7 +8215,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>95</v>
       </c>
@@ -8319,7 +8319,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>98</v>
       </c>
@@ -8423,7 +8423,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>101</v>
       </c>
@@ -8527,7 +8527,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>104</v>
       </c>
@@ -8631,7 +8631,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>107</v>
       </c>
@@ -8735,7 +8735,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>110</v>
       </c>
@@ -8839,7 +8839,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>113</v>
       </c>
@@ -8943,7 +8943,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>116</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>119</v>
       </c>
@@ -9151,7 +9151,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>122</v>
       </c>

--- a/data-raw/macroeconomic/year2023_Table_23._Industrial_Sector_Macroeconomic_Indicators.xlsx
+++ b/data-raw/macroeconomic/year2023_Table_23._Industrial_Sector_Macroeconomic_Indicators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clemson-my.sharepoint.com/personal/lsangha_clemson_edu/Documents/Desktop/Sangha/Packages/EIAdata/data-raw/macroeconomic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:40009_{CD7B6013-82C9-4F94-B76C-C44745B5CA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27EEB9E9-6E70-4EC3-A010-A30BBC358887}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:40009_{CD7B6013-82C9-4F94-B76C-C44745B5CA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B400C9A-1991-4169-8CA6-D618F35FEDAA}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="13590" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="formatted" sheetId="2" r:id="rId1"/>
@@ -955,6 +955,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1275,13 +1279,13 @@
   <dimension ref="A1:AG39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B15" sqref="B15:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="38.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.81640625" customWidth="1"/>
+    <col min="2" max="2" width="34.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.54296875" customWidth="1"/>
   </cols>
   <sheetData>
